--- a/data/5100.xlsx
+++ b/data/5100.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43141,6 +43141,41 @@
         <v>29100</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>5100</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>BPPLAS</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>4000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5100.xlsx
+++ b/data/5100.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43176,6 +43176,41 @@
         <v>4000</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>5100</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>BPPLAS</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>15000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5100.xlsx
+++ b/data/5100.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43211,6 +43211,41 @@
         <v>15000</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>5100</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>BPPLAS</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5100.xlsx
+++ b/data/5100.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43246,6 +43246,41 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>5100</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>BPPLAS</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>18000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5100.xlsx
+++ b/data/5100.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43281,6 +43281,41 @@
         <v>18000</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>5100</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>BPPLAS</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>31700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5100.xlsx
+++ b/data/5100.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43316,6 +43316,41 @@
         <v>31700</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>5100</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>BPPLAS</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>103500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5100.xlsx
+++ b/data/5100.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43351,6 +43351,41 @@
         <v>103500</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>5100</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>BPPLAS</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>95400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5100.xlsx
+++ b/data/5100.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43386,6 +43386,41 @@
         <v>95400</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>5100</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>BPPLAS</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>29500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5100.xlsx
+++ b/data/5100.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43421,6 +43421,41 @@
         <v>29500</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>5100</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>BPPLAS</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>21500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5100.xlsx
+++ b/data/5100.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43456,6 +43456,41 @@
         <v>21500</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>5100</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>BPPLAS</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>39100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5100.xlsx
+++ b/data/5100.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43491,6 +43491,41 @@
         <v>39100</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>5100</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>BPPLAS</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>257400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5100.xlsx
+++ b/data/5100.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43526,6 +43526,41 @@
         <v>257400</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>5100</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>BPPLAS</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>165000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5100.xlsx
+++ b/data/5100.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43561,6 +43561,76 @@
         <v>165000</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>5100</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>BPPLAS</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>8100</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>5100</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>BPPLAS</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>26000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5100.xlsx
+++ b/data/5100.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43631,6 +43631,76 @@
         <v>26000</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>5100</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>BPPLAS</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>10200</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>5100</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>BPPLAS</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>20000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5100.xlsx
+++ b/data/5100.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43701,6 +43701,41 @@
         <v>20000</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>5100</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>BPPLAS</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>11000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5100.xlsx
+++ b/data/5100.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43736,6 +43736,41 @@
         <v>11000</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>5100</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>BPPLAS</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>40300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5100.xlsx
+++ b/data/5100.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43771,6 +43771,41 @@
         <v>40300</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>5100</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>BPPLAS</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>129600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5100.xlsx
+++ b/data/5100.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43806,6 +43806,41 @@
         <v>129600</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>5100</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>BPPLAS</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>130200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5100.xlsx
+++ b/data/5100.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43841,6 +43841,76 @@
         <v>130200</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>5100</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>BPPLAS</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>65900</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>5100</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>BPPLAS</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>67700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5100.xlsx
+++ b/data/5100.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43911,6 +43911,41 @@
         <v>67700</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>5100</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>BPPLAS</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>89800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5100.xlsx
+++ b/data/5100.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43946,6 +43946,41 @@
         <v>89800</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>5100</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>BPPLAS</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>98100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5100.xlsx
+++ b/data/5100.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2352"/>
+  <dimension ref="A1:I2353"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82866,6 +82866,41 @@
         <v>98100</v>
       </c>
     </row>
+    <row r="2353">
+      <c r="A2353" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2353" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2353" t="inlineStr">
+        <is>
+          <t>5100</t>
+        </is>
+      </c>
+      <c r="D2353" t="inlineStr">
+        <is>
+          <t>BPPLAS</t>
+        </is>
+      </c>
+      <c r="E2353" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="F2353" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="G2353" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="H2353" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="I2353" t="n">
+        <v>140000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5100.xlsx
+++ b/data/5100.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2353"/>
+  <dimension ref="A1:I2354"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82901,6 +82901,41 @@
         <v>140000</v>
       </c>
     </row>
+    <row r="2354">
+      <c r="A2354" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2354" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2354" t="inlineStr">
+        <is>
+          <t>5100</t>
+        </is>
+      </c>
+      <c r="D2354" t="inlineStr">
+        <is>
+          <t>BPPLAS</t>
+        </is>
+      </c>
+      <c r="E2354" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F2354" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G2354" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="H2354" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="I2354" t="n">
+        <v>191400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5100.xlsx
+++ b/data/5100.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2354"/>
+  <dimension ref="A1:I2355"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82936,6 +82936,41 @@
         <v>191400</v>
       </c>
     </row>
+    <row r="2355">
+      <c r="A2355" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2355" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2355" t="inlineStr">
+        <is>
+          <t>5100</t>
+        </is>
+      </c>
+      <c r="D2355" t="inlineStr">
+        <is>
+          <t>BPPLAS</t>
+        </is>
+      </c>
+      <c r="E2355" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="F2355" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="G2355" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="H2355" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="I2355" t="n">
+        <v>158200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5100.xlsx
+++ b/data/5100.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2355"/>
+  <dimension ref="A1:I2356"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82971,6 +82971,41 @@
         <v>158200</v>
       </c>
     </row>
+    <row r="2356">
+      <c r="A2356" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2356" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2356" t="inlineStr">
+        <is>
+          <t>5100</t>
+        </is>
+      </c>
+      <c r="D2356" t="inlineStr">
+        <is>
+          <t>BPPLAS</t>
+        </is>
+      </c>
+      <c r="E2356" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="F2356" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="G2356" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="H2356" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="I2356" t="n">
+        <v>223000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5100.xlsx
+++ b/data/5100.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2356"/>
+  <dimension ref="A1:I2357"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83006,6 +83006,41 @@
         <v>223000</v>
       </c>
     </row>
+    <row r="2357">
+      <c r="A2357" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2357" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2357" t="inlineStr">
+        <is>
+          <t>5100</t>
+        </is>
+      </c>
+      <c r="D2357" t="inlineStr">
+        <is>
+          <t>BPPLAS</t>
+        </is>
+      </c>
+      <c r="E2357" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F2357" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="G2357" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="H2357" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="I2357" t="n">
+        <v>36800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5100.xlsx
+++ b/data/5100.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2357"/>
+  <dimension ref="A1:I2358"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83041,6 +83041,41 @@
         <v>36800</v>
       </c>
     </row>
+    <row r="2358">
+      <c r="A2358" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2358" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2358" t="inlineStr">
+        <is>
+          <t>5100</t>
+        </is>
+      </c>
+      <c r="D2358" t="inlineStr">
+        <is>
+          <t>BPPLAS</t>
+        </is>
+      </c>
+      <c r="E2358" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F2358" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="G2358" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="H2358" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="I2358" t="n">
+        <v>118800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5100.xlsx
+++ b/data/5100.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2358"/>
+  <dimension ref="A1:I2359"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83076,6 +83076,41 @@
         <v>118800</v>
       </c>
     </row>
+    <row r="2359">
+      <c r="A2359" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2359" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2359" t="inlineStr">
+        <is>
+          <t>5100</t>
+        </is>
+      </c>
+      <c r="D2359" t="inlineStr">
+        <is>
+          <t>BPPLAS</t>
+        </is>
+      </c>
+      <c r="E2359" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F2359" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="G2359" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="H2359" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I2359" t="n">
+        <v>17600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5100.xlsx
+++ b/data/5100.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2359"/>
+  <dimension ref="A1:I2360"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83111,6 +83111,41 @@
         <v>17600</v>
       </c>
     </row>
+    <row r="2360">
+      <c r="A2360" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2360" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2360" t="inlineStr">
+        <is>
+          <t>5100</t>
+        </is>
+      </c>
+      <c r="D2360" t="inlineStr">
+        <is>
+          <t>BPPLAS</t>
+        </is>
+      </c>
+      <c r="E2360" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="F2360" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="G2360" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="H2360" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="I2360" t="n">
+        <v>84500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5100.xlsx
+++ b/data/5100.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2360"/>
+  <dimension ref="A1:I2361"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83146,6 +83146,41 @@
         <v>84500</v>
       </c>
     </row>
+    <row r="2361">
+      <c r="A2361" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2361" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2361" t="inlineStr">
+        <is>
+          <t>5100</t>
+        </is>
+      </c>
+      <c r="D2361" t="inlineStr">
+        <is>
+          <t>BPPLAS</t>
+        </is>
+      </c>
+      <c r="E2361" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="F2361" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="G2361" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="H2361" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="I2361" t="n">
+        <v>571000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5100.xlsx
+++ b/data/5100.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2361"/>
+  <dimension ref="A1:I2362"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83181,6 +83181,41 @@
         <v>571000</v>
       </c>
     </row>
+    <row r="2362">
+      <c r="A2362" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2362" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2362" t="inlineStr">
+        <is>
+          <t>5100</t>
+        </is>
+      </c>
+      <c r="D2362" t="inlineStr">
+        <is>
+          <t>BPPLAS</t>
+        </is>
+      </c>
+      <c r="E2362" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F2362" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G2362" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H2362" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I2362" t="n">
+        <v>49400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5100.xlsx
+++ b/data/5100.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2362"/>
+  <dimension ref="A1:I2363"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83216,6 +83216,41 @@
         <v>49400</v>
       </c>
     </row>
+    <row r="2363">
+      <c r="A2363" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2363" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2363" t="inlineStr">
+        <is>
+          <t>5100</t>
+        </is>
+      </c>
+      <c r="D2363" t="inlineStr">
+        <is>
+          <t>BPPLAS</t>
+        </is>
+      </c>
+      <c r="E2363" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="F2363" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="G2363" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="H2363" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="I2363" t="n">
+        <v>56700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5100.xlsx
+++ b/data/5100.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2363"/>
+  <dimension ref="A1:I2364"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83251,6 +83251,41 @@
         <v>56700</v>
       </c>
     </row>
+    <row r="2364">
+      <c r="A2364" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2364" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2364" t="inlineStr">
+        <is>
+          <t>5100</t>
+        </is>
+      </c>
+      <c r="D2364" t="inlineStr">
+        <is>
+          <t>BPPLAS</t>
+        </is>
+      </c>
+      <c r="E2364" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="F2364" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="G2364" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="H2364" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="I2364" t="n">
+        <v>71300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5100.xlsx
+++ b/data/5100.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2364"/>
+  <dimension ref="A1:I2365"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83286,6 +83286,41 @@
         <v>71300</v>
       </c>
     </row>
+    <row r="2365">
+      <c r="A2365" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2365" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2365" t="inlineStr">
+        <is>
+          <t>5100</t>
+        </is>
+      </c>
+      <c r="D2365" t="inlineStr">
+        <is>
+          <t>BPPLAS</t>
+        </is>
+      </c>
+      <c r="E2365" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="F2365" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="G2365" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="H2365" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="I2365" t="n">
+        <v>59800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5100.xlsx
+++ b/data/5100.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2365"/>
+  <dimension ref="A1:I2366"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83321,6 +83321,41 @@
         <v>59800</v>
       </c>
     </row>
+    <row r="2366">
+      <c r="A2366" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2366" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2366" t="inlineStr">
+        <is>
+          <t>5100</t>
+        </is>
+      </c>
+      <c r="D2366" t="inlineStr">
+        <is>
+          <t>BPPLAS</t>
+        </is>
+      </c>
+      <c r="E2366" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F2366" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G2366" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H2366" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I2366" t="n">
+        <v>23000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5100.xlsx
+++ b/data/5100.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2366"/>
+  <dimension ref="A1:I2367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83356,6 +83356,41 @@
         <v>23000</v>
       </c>
     </row>
+    <row r="2367">
+      <c r="A2367" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2367" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2367" t="inlineStr">
+        <is>
+          <t>5100</t>
+        </is>
+      </c>
+      <c r="D2367" t="inlineStr">
+        <is>
+          <t>BPPLAS</t>
+        </is>
+      </c>
+      <c r="E2367" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F2367" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G2367" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H2367" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I2367" t="n">
+        <v>24000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
